--- a/TMTstop-A_1/TMTstop-A_1_3.xlsx
+++ b/TMTstop-A_1/TMTstop-A_1_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lunduniversityo365-my.sharepoint.com/personal/em5456ol-s_lu_se/Documents/Experiment paradigms/TMT_PsychoPY_new/TMTstop-A_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="407" documentId="13_ncr:1_{ED9D02F7-1230-44A2-A7DC-15FEAC8DD2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB5E806D-0B36-4D26-926E-D619F2B8DCE4}"/>
+  <xr:revisionPtr revIDLastSave="409" documentId="13_ncr:1_{ED9D02F7-1230-44A2-A7DC-15FEAC8DD2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27E5CE84-E582-4FCC-AD52-8C4861865108}"/>
   <bookViews>
-    <workbookView xWindow="29595" yWindow="2130" windowWidth="14655" windowHeight="8760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -600,19 +600,19 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A2" sqref="A2:F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" customWidth="1"/>
-    <col min="5" max="5" width="39.28515625" customWidth="1"/>
-    <col min="6" max="6" width="39.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="5" max="5" width="39.33203125" customWidth="1"/>
+    <col min="6" max="6" width="39.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -635,7 +635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -659,7 +659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -683,7 +683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -707,7 +707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -755,7 +755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -779,7 +779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -803,7 +803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -827,7 +827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -851,7 +851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -875,7 +875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -899,7 +899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -923,7 +923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -947,7 +947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -968,7 +968,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -989,7 +989,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>78</v>
       </c>
